--- a/data/trans_orig/P2C_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C19F4941-E742-469A-8626-478A45DACE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{400A725D-C014-4839-ACAA-CE30D23A4CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C3FE6D6E-24B1-409F-9949-9485A833B720}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C2EDD798-5864-42FE-A9D4-BB8DC953DD1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>21,63%</t>
@@ -101,7 +101,7 @@
     <t>26,42%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>78,37%</t>
@@ -740,220 +740,214 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D9D6E-2ABA-465F-B26B-958B97DBDFF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A849A8-F0A6-490A-94A1-E4D30EC74B87}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1567,7 +1561,7 @@
         <v>1769</v>
       </c>
       <c r="N5" s="7">
-        <v>1775374</v>
+        <v>1775373</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1618,7 +1612,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1692,7 +1686,7 @@
         <v>1101</v>
       </c>
       <c r="D8" s="7">
-        <v>1128156</v>
+        <v>1128157</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1737,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2002,7 +1996,7 @@
         <v>2286</v>
       </c>
       <c r="D14" s="7">
-        <v>2321111</v>
+        <v>2321110</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2017,7 +2011,7 @@
         <v>2170</v>
       </c>
       <c r="I14" s="7">
-        <v>2212274</v>
+        <v>2212273</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2032,7 +2026,7 @@
         <v>4456</v>
       </c>
       <c r="N14" s="7">
-        <v>4533383</v>
+        <v>4533384</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2053,7 +2047,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2062,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2083,7 +2077,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC515D1D-B7B8-4EC1-ABA8-7D8A4F8A6C4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC21AAE7-F85C-405E-846D-DD6256FEDE2D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2246,7 @@
         <v>536</v>
       </c>
       <c r="I4" s="7">
-        <v>580533</v>
+        <v>580534</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2354,7 +2348,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2577,7 +2571,7 @@
         <v>392</v>
       </c>
       <c r="N10" s="7">
-        <v>429354</v>
+        <v>429355</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2679,7 +2673,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828AB243-CCCC-48B2-96F5-A07B4EBDAF7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2709CF72-3A57-473B-987D-EBF7003C6F14}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3379,7 +3373,7 @@
         <v>658</v>
       </c>
       <c r="N11" s="7">
-        <v>703257</v>
+        <v>703258</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>211</v>
@@ -3430,7 +3424,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3618,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197E94B9-DF1A-4186-87E0-C3C362E561D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3425A0E4-0415-4E10-A1EB-8D349D1F9DA9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3733,7 @@
         <v>134</v>
       </c>
       <c r="D4" s="7">
-        <v>97872</v>
+        <v>90034</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3754,7 +3748,7 @@
         <v>387</v>
       </c>
       <c r="I4" s="7">
-        <v>219930</v>
+        <v>196162</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3769,7 +3763,7 @@
         <v>521</v>
       </c>
       <c r="N4" s="7">
-        <v>317802</v>
+        <v>286196</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3790,7 +3784,7 @@
         <v>557</v>
       </c>
       <c r="D5" s="7">
-        <v>443762</v>
+        <v>424904</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3805,7 +3799,7 @@
         <v>1040</v>
       </c>
       <c r="I5" s="7">
-        <v>616023</v>
+        <v>559346</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3820,7 +3814,7 @@
         <v>1597</v>
       </c>
       <c r="N5" s="7">
-        <v>1059784</v>
+        <v>984250</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3841,7 +3835,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3850,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3865,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3894,7 +3888,7 @@
         <v>270</v>
       </c>
       <c r="D7" s="7">
-        <v>278823</v>
+        <v>254803</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3909,7 +3903,7 @@
         <v>457</v>
       </c>
       <c r="I7" s="7">
-        <v>471155</v>
+        <v>523245</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>254</v>
@@ -3924,7 +3918,7 @@
         <v>727</v>
       </c>
       <c r="N7" s="7">
-        <v>749977</v>
+        <v>778048</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>257</v>
@@ -3933,7 +3927,7 @@
         <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,46 +3939,46 @@
         <v>1722</v>
       </c>
       <c r="D8" s="7">
-        <v>1883199</v>
+        <v>2035524</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2464</v>
       </c>
       <c r="I8" s="7">
-        <v>1778365</v>
+        <v>1714578</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>4186</v>
       </c>
       <c r="N8" s="7">
-        <v>3661566</v>
+        <v>3750102</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3990,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +4005,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4020,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,46 +4043,46 @@
         <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>70948</v>
+        <v>67394</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
       </c>
       <c r="I10" s="7">
-        <v>82073</v>
+        <v>73295</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
       </c>
       <c r="N10" s="7">
-        <v>153021</v>
+        <v>140689</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,46 +4094,46 @@
         <v>617</v>
       </c>
       <c r="D11" s="7">
-        <v>602091</v>
+        <v>579229</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>890</v>
       </c>
       <c r="I11" s="7">
-        <v>631813</v>
+        <v>587168</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1507</v>
       </c>
       <c r="N11" s="7">
-        <v>1233905</v>
+        <v>1166397</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4145,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4160,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4175,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4204,46 +4198,46 @@
         <v>468</v>
       </c>
       <c r="D13" s="7">
-        <v>447642</v>
+        <v>412231</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>958</v>
       </c>
       <c r="I13" s="7">
-        <v>773158</v>
+        <v>792702</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>1426</v>
       </c>
       <c r="N13" s="7">
-        <v>1220800</v>
+        <v>1204933</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,46 +4249,46 @@
         <v>2896</v>
       </c>
       <c r="D14" s="7">
-        <v>2929053</v>
+        <v>3039658</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>4394</v>
       </c>
       <c r="I14" s="7">
-        <v>3026202</v>
+        <v>2861092</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>7290</v>
       </c>
       <c r="N14" s="7">
-        <v>5955255</v>
+        <v>5900750</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4300,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4315,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4330,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
